--- a/PomiarySimr/Velocity1.xlsx
+++ b/PomiarySimr/Velocity1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wutwaw-my.sharepoint.com/personal/01162562_pw_edu_pl/Documents/Kody/VSC Kody/GPS_data/PomiarySimr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_3ACD66A0DD6AD856DD80C6F0505ED87656CFC6A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A901F067-0C5C-4F01-A1FE-48773ED2348D}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_3ACD66A0DD6AD856DD80C6F0505ED87656CFC6A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F3D850F-A15D-4534-B724-CCB17B996665}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="7995" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>&lt;-- GPS</t>
+    <t>1 Kolumna prędkość [Km/h]</t>
+  </si>
+  <si>
+    <t>2 kolumna czas [s]</t>
   </si>
 </sst>
 </file>
@@ -365,12 +368,12 @@
   <dimension ref="A1:C1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -391,6 +394,9 @@
       <c r="B2">
         <v>1.5381097793579099</v>
       </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
